--- a/Input/Salama_Insurance/benefits.xlsx
+++ b/Input/Salama_Insurance/benefits.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="108">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t xml:space="preserve">frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planCopay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency</t>
   </si>
   <si>
     <t xml:space="preserve">Family Care Product</t>
@@ -307,10 +313,10 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultation 20% with AED 50 max,all other OP nil/NIL/NIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-01</t>
+    <t xml:space="preserve">Consultation 20% up to max AED 50, OP NIL co-pay &amp; Pharma NIL co-pay/NIL/NIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-02</t>
   </si>
   <si>
     <t xml:space="preserve">salama</t>
@@ -322,10 +328,34 @@
     <t xml:space="preserve">Annually</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultation 20% with AED 50 max,all other OP 10%/10%/10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation 20% with AED 50 max, all other OP 20%/20%/20%</t>
+    <t xml:space="preserve">single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation 20% up to max AED 50, OP NIL co-pay &amp; Pharma 10% co-pay/NIL/10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation 20% up to max AED 50, OP NIL co-pay &amp; Pharma 20% co-pay/NIL/20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation 20% up to max AED 50, OP 10% co-pay &amp; Pharma NIL co-pay/10%/NIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation 20% up to max AED 50, OP 10% co-pay &amp; Pharma 10% co-pay/10%/10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation 20% up to max AED 50, OP 10% co-pay &amp; Pharma 20% co-pay/10%/20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation 20% up to max AED 50, OP 20% co-pay &amp; Pharma NIL co-pay/20%/NIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation 20% up to max AED 50, OP 20% co-pay &amp; Pharma 10% co-pay/20%/10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation 20% up to max AED 50, OP 20% co-pay &amp; Pharma 20% co-pay/20%/20%</t>
   </si>
 </sst>
 </file>
@@ -451,13 +481,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BK5"/>
+  <dimension ref="A1:BN10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BF2" activeCellId="0" sqref="BF2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.96"/>
@@ -468,14 +498,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="20.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="25.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="26.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="71.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="105.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="11.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="21.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="25.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.36"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="157.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="156" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -655,186 +686,231 @@
       <c r="BK1" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="BL1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="261.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF2" s="3"/>
       <c r="AG2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
       <c r="AS2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AV2" s="3"/>
       <c r="AW2" s="3"/>
       <c r="AX2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BF2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="BG2" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BH2" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BI2" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="BK2" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="BL2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM2" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN2" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BF3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BF4" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BF5" s="3"/>
+      <c r="BF5" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BF6" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BF7" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BF8" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BF9" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BF10" s="0" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Input/Salama_Insurance/benefits.xlsx
+++ b/Input/Salama_Insurance/benefits.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Sheet 1'!$AW$1:$BK$4</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -184,12 +181,12 @@
     <t xml:space="preserve">copay</t>
   </si>
   <si>
+    <t xml:space="preserve">companyName</t>
+  </si>
+  <si>
     <t xml:space="preserve">startDate</t>
   </si>
   <si>
-    <t xml:space="preserve">companyName</t>
-  </si>
-  <si>
     <t xml:space="preserve">residency</t>
   </si>
   <si>
@@ -208,7 +205,7 @@
     <t xml:space="preserve">Worldwide Including USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Mednet Gold/Mednet Silver Premium/Mednet Silver Classic/Mednet Green/Mednet Emerald/Mednet Pearl/Mednet Silk Road (Out Patient treatment restricted to Clinics Only From 10 PM to 8AM Out Patient treatments access is available at Network Hospitals)</t>
+    <t xml:space="preserve">Mednet Gold/Mednet Silver Premium/Mednet Silver Classic/Mednet Green/Mednet Emerald/Mednet Pearl/Mednet Silk Road</t>
   </si>
   <si>
     <t xml:space="preserve">SEA- 100% of actual cost subject to 100% of UAE applicable network rates 
@@ -216,54 +213,51 @@
 * No elective treatment reimbursement for Silk Road Network within UAE</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 150,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 150,000 subject to declaration with 6 months wait</t>
+    <t xml:space="preserve">Covered in full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full subject to declaration with 6 months wait</t>
   </si>
   <si>
     <t xml:space="preserve">Private Room</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered for members enrolled under BASMAH initiative</t>
+    <t xml:space="preserve">Not Available</t>
   </si>
   <si>
     <t xml:space="preserve">Covered with restrictions</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered in full with $ co-pay and diagnostics &amp; lab tests covered in full with $ co-pay. Consultations covered with 20% co-pay with AED 50 max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% up to a max of AED 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with $  co-pay</t>
+    <t xml:space="preserve">Medicines covered in full with $ co-pay and diagnostics &amp; lab tests covered in full with NIL co-pay. Consultations covered with AED 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full with $ co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Covered for children up to 6 years as per MOH schedule 
 * Subject to pre-approval</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full with $ co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 sessions per year subject to pre-authorization with $ co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP- Covered in full with 10% co-pay
-Normal Delivery and C-Section- Covered up to AED 10,000</t>
+    <t xml:space="preserve">Covered in full with NIL co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full subject to pre-authorization with NILco-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full Delivery Inside AUH- Covered in full with AED 500 deductible Outside AUH- OP and IP covered up to AED 10,000</t>
   </si>
   <si>
     <t xml:space="preserve">No wait (LMP must be within policy period)</t>
   </si>
   <si>
-    <t xml:space="preserve">Medical Emergency covered up to AED 150,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 150,000 for the first 30 days</t>
+    <t xml:space="preserve">Inside AUH- Covered in full 
+Outside AUH- Covered up to AED 10,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full for the first 30 days</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 3,500 with 20% co-pay</t>
@@ -276,10 +270,6 @@
 Emergencies covered in full</t>
   </si>
   <si>
-    <t xml:space="preserve">DHA benefits only- Diabetic Screening (above 18 years only)
-*Subject to pre-approval</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covered up to AED 1,600 on reimbursement basis</t>
   </si>
   <si>
@@ -293,11 +283,8 @@
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Worldwide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation- 20% up to a max of AED 50 
-OP- 0% or 10% or 20%
+    <t xml:space="preserve">Consultation- AED 50
+OP- 0% 
 Pharmacy- 0% or 10% or 20% or 30%</t>
   </si>
   <si>
@@ -307,25 +294,28 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultation 20% with AED 50 max,all other OP nil/NIL/NIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-01</t>
+    <t xml:space="preserve">Consultation AED 50, OP NIL co-pay, Pharma NIL co-pay/NIL</t>
   </si>
   <si>
     <t xml:space="preserve">salama</t>
   </si>
   <si>
-    <t xml:space="preserve">NE/Dubai</t>
+    <t xml:space="preserve">2024-03-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAE - Abu Dhabi</t>
   </si>
   <si>
     <t xml:space="preserve">Annually</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultation 20% with AED 50 max,all other OP 10%/10%/10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation 20% with AED 50 max, all other OP 20%/20%/20%</t>
+    <t xml:space="preserve">Consultation AED 50, OP NIL co-pay, Pharma 10% co-pay/10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation AED 50, OP NIL co-pay, Pharma 20% co-pay/20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation AED 50, OP NIL co-pay, Pharma 30% co-pay/30%</t>
   </si>
 </sst>
 </file>
@@ -336,7 +326,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -363,6 +353,26 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -409,7 +419,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -426,56 +436,70 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BK5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BF2" activeCellId="0" sqref="BF2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="80.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="60.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="25.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="20.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="25.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="26.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="71.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="11.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="21.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="25.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="7" style="0" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="27.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="18" style="0" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="79.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="10.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="14.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="63" style="0" width="8.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="157.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -637,26 +661,26 @@
       <c r="BE1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BH1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BI1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BJ1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BK1" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="261.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="166.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -684,157 +708,159 @@
         <v>65</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="3"/>
+      <c r="Y2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="AF2" s="3"/>
       <c r="AG2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
       <c r="AS2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AV2" s="3"/>
       <c r="AW2" s="3"/>
-      <c r="AX2" s="2" t="s">
+      <c r="AX2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF2" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BG2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BH2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="BB2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF2" s="0" t="s">
+      <c r="BI2" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH2" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI2" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="BJ2" s="3" t="s">
         <v>60</v>
       </c>
       <c r="BK2" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BF3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BF4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BF5" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BF3" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BF4" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BF5" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
